--- a/Plan projet/RoadMap.xlsx
+++ b/Plan projet/RoadMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kween\Bureau\Ynov\B1 INFO\SEMESTRE 2\Module_CHALLENGE-JS\PROJET\Plan projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454C3843-582F-44DD-AA0E-57384BCAFEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65CD40D-ACF3-44E4-B103-2A5974D542B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>BOUTIQUE CARACTERISTIQUES</t>
   </si>
@@ -133,13 +133,19 @@
   </si>
   <si>
     <t>DIOR mais a lenvers RIOD</t>
+  </si>
+  <si>
+    <t>Logo dispo sur Figma</t>
+  </si>
+  <si>
+    <t>KANTIN / ARTHUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +209,13 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -419,84 +432,297 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -772,52 +998,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17:Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="55.5703125" customWidth="1"/>
     <col min="30" max="30" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="24" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="10" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
     </row>
     <row r="2" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -827,277 +1053,277 @@
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="21"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
       <c r="AD2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="18" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="28" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="32" t="s">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
       <c r="AD3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE3" s="30"/>
     </row>
     <row r="4" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="18" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
       <c r="AD4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AE4" s="30"/>
     </row>
     <row r="5" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="28" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="28" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
     </row>
     <row r="7" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
       <c r="AD7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="18" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="28" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
       <c r="AD8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="28" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
       <c r="AD9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1106,525 +1332,514 @@
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
       <c r="AD10" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="28" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
     </row>
     <row r="12" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="28" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
     </row>
     <row r="13" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
     </row>
     <row r="14" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="28" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
     </row>
     <row r="15" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="28" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
     </row>
     <row r="16" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="28" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
     </row>
     <row r="17" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="28" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
     </row>
     <row r="18" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="28" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
     </row>
     <row r="19" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="28" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
     </row>
     <row r="20" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="28" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
     </row>
     <row r="21" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="28" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
     </row>
     <row r="22" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="28" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
     </row>
     <row r="23" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="28" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
     </row>
     <row r="24" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="28" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
     </row>
     <row r="25" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
       <c r="S25" s="3"/>
+    </row>
+    <row r="29" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="P12:Y12"/>
+    <mergeCell ref="P14:Y14"/>
+    <mergeCell ref="P15:Y15"/>
+    <mergeCell ref="P16:Y16"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="P22:Y22"/>
+    <mergeCell ref="P23:Y23"/>
+    <mergeCell ref="P24:Y24"/>
+    <mergeCell ref="P17:Y17"/>
+    <mergeCell ref="P18:Y18"/>
+    <mergeCell ref="P19:Y19"/>
+    <mergeCell ref="P20:Y20"/>
+    <mergeCell ref="P21:Y21"/>
+    <mergeCell ref="P11:Y11"/>
+    <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="P3:Y3"/>
+    <mergeCell ref="P4:Y4"/>
+    <mergeCell ref="P5:Y5"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="P6:Y6"/>
+    <mergeCell ref="P8:Y8"/>
+    <mergeCell ref="P9:Y9"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E21"/>
@@ -1641,44 +1856,58 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="P11:Y11"/>
-    <mergeCell ref="P1:Y1"/>
-    <mergeCell ref="P3:Y3"/>
-    <mergeCell ref="P4:Y4"/>
-    <mergeCell ref="P5:Y5"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="P22:Y22"/>
-    <mergeCell ref="P23:Y23"/>
-    <mergeCell ref="P24:Y24"/>
-    <mergeCell ref="P17:Y17"/>
-    <mergeCell ref="P18:Y18"/>
-    <mergeCell ref="P19:Y19"/>
-    <mergeCell ref="P20:Y20"/>
-    <mergeCell ref="P21:Y21"/>
-    <mergeCell ref="P12:Y12"/>
-    <mergeCell ref="P14:Y14"/>
-    <mergeCell ref="P15:Y15"/>
-    <mergeCell ref="P16:Y16"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="P6:Y6"/>
-    <mergeCell ref="P8:Y8"/>
-    <mergeCell ref="P9:Y9"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="K24:O24"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:O24 K3:O6 K8:O9 K11:O12" xr:uid="{546E0733-B499-451F-8417-27B03B85F6A9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:O24 K8:O9 K3:O6 K11:O12" xr:uid="{546E0733-B499-451F-8417-27B03B85F6A9}">
       <formula1>$AD$8:$AD$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:J6 F8:J9 F11:J12 F14:J25" xr:uid="{0AEA89E8-2FD4-4A1E-AC12-D2608D44DBA1}">
@@ -1686,5 +1915,241 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{FAA05BAA-1CAE-41D3-B3BE-0E16EFE6E746}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$8,AD14)))</xm:f>
+            <xm:f>$AD$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AD14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{7EA7516A-560A-4F7E-8BD9-E11CA05E2239}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$9,K3)))</xm:f>
+            <xm:f>$AD$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{CF60BB54-70D8-4966-80CB-CE9D16E905B7}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$8,K3)))</xm:f>
+            <xm:f>$AD$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{DE6B4AB3-5D97-4EF8-9B6F-E46607E7B22D}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$10,K3)))</xm:f>
+            <xm:f>$AD$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K3:O6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{9564678D-1634-4BFF-A964-62D6C49629C4}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$10,K9)))</xm:f>
+            <xm:f>$AD$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{B66C7E3B-4030-479E-AD21-814692839491}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$8,K9)))</xm:f>
+            <xm:f>$AD$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{6546515D-DEBF-4BFC-8663-B4C08AE8D313}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$9,K9)))</xm:f>
+            <xm:f>$AD$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K9:O9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{161FFC9B-8913-450A-9016-F626A3C0DA73}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$10,K8)))</xm:f>
+            <xm:f>$AD$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{67629179-2E1C-42A1-8331-7BA7D38E08A0}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$8,K8)))</xm:f>
+            <xm:f>$AD$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{C465F30E-5603-4F6F-A6F4-16378A0939F6}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$9,K8)))</xm:f>
+            <xm:f>$AD$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K8:O8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{5147AA62-A5DA-4167-B945-6B653FC344F6}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$10,K14)))</xm:f>
+            <xm:f>$AD$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{34328A3B-BB80-4897-9B13-6972F6F7BCD0}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$8,K14)))</xm:f>
+            <xm:f>$AD$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{D56F4724-C447-42D0-87E9-E1502DBA039A}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$9,K14)))</xm:f>
+            <xm:f>$AD$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K14:O24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{63E538B1-F65D-4631-B836-C59CC7A91B59}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$10,K11)))</xm:f>
+            <xm:f>$AD$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{DD8FAA90-18EA-4499-B208-55EAFD8E6DBF}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$8,K11)))</xm:f>
+            <xm:f>$AD$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{88830940-7A78-4F92-AB68-D9169735CE36}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$9,K11)))</xm:f>
+            <xm:f>$AD$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K11:O11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{A8EBED8C-60B4-405B-AF9A-D99CDF281581}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$10,K12)))</xm:f>
+            <xm:f>$AD$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{FE6B621D-2FF7-439A-9BB7-980D647FD5DD}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$8,K12)))</xm:f>
+            <xm:f>$AD$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{C4A57C85-251A-4A52-B917-DACCB83F7AB3}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$9,K12)))</xm:f>
+            <xm:f>$AD$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K12:O12</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Plan projet/RoadMap.xlsx
+++ b/Plan projet/RoadMap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kween\Bureau\Ynov\B1 INFO\SEMESTRE 2\Module_CHALLENGE-JS\PROJET\Plan projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kween\Desktop\Livrables-projet-boutique-js\Plan projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65CD40D-ACF3-44E4-B103-2A5974D542B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A12667-8F25-40CF-A20C-77A56D708BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,32 +145,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -216,6 +193,21 @@
     </font>
     <font>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -409,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,89 +421,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -572,146 +624,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1000,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17:Y17"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1011,13 +923,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="18" t="s">
         <v>32</v>
       </c>
@@ -1025,772 +937,772 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="29" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
     </row>
     <row r="2" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
       <c r="AD2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="9" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="28" t="s">
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
       <c r="AD3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="9" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="28" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
       <c r="AD4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="9" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="9" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
     </row>
     <row r="7" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
       <c r="AD7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="9" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
       <c r="AD8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="9" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
       <c r="AD9" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
       <c r="AD10" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
     </row>
     <row r="12" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
     </row>
     <row r="13" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
     </row>
     <row r="14" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
     </row>
     <row r="15" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
     </row>
     <row r="16" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
     </row>
     <row r="17" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
     </row>
     <row r="18" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
     </row>
     <row r="19" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
     </row>
     <row r="20" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
     </row>
     <row r="21" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
     </row>
     <row r="22" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
     </row>
     <row r="23" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
     </row>
     <row r="24" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
     </row>
     <row r="25" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="8"/>
@@ -1801,45 +1713,59 @@
       <c r="S25" s="3"/>
     </row>
     <row r="29" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="32"/>
+      <c r="E29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="P12:Y12"/>
-    <mergeCell ref="P14:Y14"/>
-    <mergeCell ref="P15:Y15"/>
-    <mergeCell ref="P16:Y16"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="P22:Y22"/>
-    <mergeCell ref="P23:Y23"/>
-    <mergeCell ref="P24:Y24"/>
-    <mergeCell ref="P17:Y17"/>
-    <mergeCell ref="P18:Y18"/>
-    <mergeCell ref="P19:Y19"/>
-    <mergeCell ref="P20:Y20"/>
-    <mergeCell ref="P21:Y21"/>
-    <mergeCell ref="P11:Y11"/>
-    <mergeCell ref="P1:Y1"/>
-    <mergeCell ref="P3:Y3"/>
-    <mergeCell ref="P4:Y4"/>
-    <mergeCell ref="P5:Y5"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="P6:Y6"/>
-    <mergeCell ref="P8:Y8"/>
-    <mergeCell ref="P9:Y9"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:J5"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E21"/>
@@ -1856,55 +1782,41 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="P11:Y11"/>
+    <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="P3:Y3"/>
+    <mergeCell ref="P4:Y4"/>
+    <mergeCell ref="P5:Y5"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="P6:Y6"/>
+    <mergeCell ref="P8:Y8"/>
+    <mergeCell ref="P9:Y9"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="P22:Y22"/>
+    <mergeCell ref="P23:Y23"/>
+    <mergeCell ref="P24:Y24"/>
+    <mergeCell ref="P17:Y17"/>
+    <mergeCell ref="P18:Y18"/>
+    <mergeCell ref="P19:Y19"/>
+    <mergeCell ref="P20:Y20"/>
+    <mergeCell ref="P21:Y21"/>
+    <mergeCell ref="P12:Y12"/>
+    <mergeCell ref="P14:Y14"/>
+    <mergeCell ref="P15:Y15"/>
+    <mergeCell ref="P16:Y16"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="U13:Y13"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:O24 K8:O9 K3:O6 K11:O12" xr:uid="{546E0733-B499-451F-8417-27B03B85F6A9}">
@@ -1915,6 +1827,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/Plan projet/RoadMap.xlsx
+++ b/Plan projet/RoadMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kween\Bureau\Ynov\B1 INFO\SEMESTRE 2\Module_CHALLENGE-JS\PROJET\Plan projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65CD40D-ACF3-44E4-B103-2A5974D542B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2BACCD-655F-46D6-AB70-3C09E952E8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>BOUTIQUE CARACTERISTIQUES</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>NOM DES TACHES</t>
-  </si>
-  <si>
-    <t>LES DEUX</t>
   </si>
   <si>
     <t>DIOR mais a lenvers RIOD</t>
@@ -435,83 +432,90 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -557,104 +561,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5"/>
         </patternFill>
       </fill>
@@ -663,13 +569,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -697,28 +596,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1000,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17:Y17"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1011,786 +889,786 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="18" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="12" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="29" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
     </row>
     <row r="2" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
       <c r="AD2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="9" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
       <c r="AD3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="9" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
       <c r="AD4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
     </row>
     <row r="7" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
       <c r="AD7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="9" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
       <c r="AD8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
       <c r="AD9" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
       <c r="AD10" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
     </row>
     <row r="12" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
     </row>
     <row r="13" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
     </row>
     <row r="14" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
     </row>
     <row r="15" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
     </row>
     <row r="16" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
     </row>
     <row r="17" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
     </row>
     <row r="18" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
     </row>
     <row r="19" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
     </row>
     <row r="20" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
     </row>
     <row r="21" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
     </row>
     <row r="22" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
     </row>
     <row r="23" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
     </row>
     <row r="24" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
     </row>
     <row r="25" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="8"/>
@@ -1801,45 +1679,59 @@
       <c r="S25" s="3"/>
     </row>
     <row r="29" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="32"/>
+      <c r="E29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="P12:Y12"/>
-    <mergeCell ref="P14:Y14"/>
-    <mergeCell ref="P15:Y15"/>
-    <mergeCell ref="P16:Y16"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="P22:Y22"/>
-    <mergeCell ref="P23:Y23"/>
-    <mergeCell ref="P24:Y24"/>
-    <mergeCell ref="P17:Y17"/>
-    <mergeCell ref="P18:Y18"/>
-    <mergeCell ref="P19:Y19"/>
-    <mergeCell ref="P20:Y20"/>
-    <mergeCell ref="P21:Y21"/>
-    <mergeCell ref="P11:Y11"/>
-    <mergeCell ref="P1:Y1"/>
-    <mergeCell ref="P3:Y3"/>
-    <mergeCell ref="P4:Y4"/>
-    <mergeCell ref="P5:Y5"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="P6:Y6"/>
-    <mergeCell ref="P8:Y8"/>
-    <mergeCell ref="P9:Y9"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:J5"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E21"/>
@@ -1856,55 +1748,41 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="P11:Y11"/>
+    <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="P3:Y3"/>
+    <mergeCell ref="P4:Y4"/>
+    <mergeCell ref="P5:Y5"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="P6:Y6"/>
+    <mergeCell ref="P8:Y8"/>
+    <mergeCell ref="P9:Y9"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="P22:Y22"/>
+    <mergeCell ref="P23:Y23"/>
+    <mergeCell ref="P24:Y24"/>
+    <mergeCell ref="P17:Y17"/>
+    <mergeCell ref="P18:Y18"/>
+    <mergeCell ref="P19:Y19"/>
+    <mergeCell ref="P20:Y20"/>
+    <mergeCell ref="P21:Y21"/>
+    <mergeCell ref="P12:Y12"/>
+    <mergeCell ref="P14:Y14"/>
+    <mergeCell ref="P15:Y15"/>
+    <mergeCell ref="P16:Y16"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="U13:Y13"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:O24 K8:O9 K3:O6 K11:O12" xr:uid="{546E0733-B499-451F-8417-27B03B85F6A9}">
@@ -1919,27 +1797,13 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{FAA05BAA-1CAE-41D3-B3BE-0E16EFE6E746}">
-            <xm:f>NOT(ISERROR(SEARCH($AD$8,AD14)))</xm:f>
-            <xm:f>$AD$8</xm:f>
+          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{DE6B4AB3-5D97-4EF8-9B6F-E46607E7B22D}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$10,K3)))</xm:f>
+            <xm:f>$AD$10</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AD14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{7EA7516A-560A-4F7E-8BD9-E11CA05E2239}">
-            <xm:f>NOT(ISERROR(SEARCH($AD$9,K3)))</xm:f>
-            <xm:f>$AD$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
+                  <bgColor rgb="FFFF0000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -1955,44 +1819,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{DE6B4AB3-5D97-4EF8-9B6F-E46607E7B22D}">
-            <xm:f>NOT(ISERROR(SEARCH($AD$10,K3)))</xm:f>
-            <xm:f>$AD$10</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K3:O6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{9564678D-1634-4BFF-A964-62D6C49629C4}">
-            <xm:f>NOT(ISERROR(SEARCH($AD$10,K9)))</xm:f>
-            <xm:f>$AD$10</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{B66C7E3B-4030-479E-AD21-814692839491}">
-            <xm:f>NOT(ISERROR(SEARCH($AD$8,K9)))</xm:f>
-            <xm:f>$AD$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{6546515D-DEBF-4BFC-8663-B4C08AE8D313}">
-            <xm:f>NOT(ISERROR(SEARCH($AD$9,K9)))</xm:f>
+          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{7EA7516A-560A-4F7E-8BD9-E11CA05E2239}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$9,K3)))</xm:f>
             <xm:f>$AD$9</xm:f>
             <x14:dxf>
               <fill>
@@ -2002,7 +1830,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K9:O9</xm:sqref>
+          <xm:sqref>K3:O6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="16" operator="containsText" id="{161FFC9B-8913-450A-9016-F626A3C0DA73}">
@@ -2038,7 +1866,43 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K8:O8</xm:sqref>
+          <xm:sqref>K8:O9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{A8EBED8C-60B4-405B-AF9A-D99CDF281581}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$10,K11)))</xm:f>
+            <xm:f>$AD$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{FE6B621D-2FF7-439A-9BB7-980D647FD5DD}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$8,K11)))</xm:f>
+            <xm:f>$AD$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{C4A57C85-251A-4A52-B917-DACCB83F7AB3}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$9,K11)))</xm:f>
+            <xm:f>$AD$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K11:O12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="7" operator="containsText" id="{5147AA62-A5DA-4167-B945-6B653FC344F6}">
@@ -2077,19 +1941,8 @@
           <xm:sqref>K14:O24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{63E538B1-F65D-4631-B836-C59CC7A91B59}">
-            <xm:f>NOT(ISERROR(SEARCH($AD$10,K11)))</xm:f>
-            <xm:f>$AD$10</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{DD8FAA90-18EA-4499-B208-55EAFD8E6DBF}">
-            <xm:f>NOT(ISERROR(SEARCH($AD$8,K11)))</xm:f>
+          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{FAA05BAA-1CAE-41D3-B3BE-0E16EFE6E746}">
+            <xm:f>NOT(ISERROR(SEARCH($AD$8,AD14)))</xm:f>
             <xm:f>$AD$8</xm:f>
             <x14:dxf>
               <fill>
@@ -2099,54 +1952,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{88830940-7A78-4F92-AB68-D9169735CE36}">
-            <xm:f>NOT(ISERROR(SEARCH($AD$9,K11)))</xm:f>
-            <xm:f>$AD$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K11:O11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{A8EBED8C-60B4-405B-AF9A-D99CDF281581}">
-            <xm:f>NOT(ISERROR(SEARCH($AD$10,K12)))</xm:f>
-            <xm:f>$AD$10</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{FE6B621D-2FF7-439A-9BB7-980D647FD5DD}">
-            <xm:f>NOT(ISERROR(SEARCH($AD$8,K12)))</xm:f>
-            <xm:f>$AD$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{C4A57C85-251A-4A52-B917-DACCB83F7AB3}">
-            <xm:f>NOT(ISERROR(SEARCH($AD$9,K12)))</xm:f>
-            <xm:f>$AD$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K12:O12</xm:sqref>
+          <xm:sqref>AD14</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Plan projet/RoadMap.xlsx
+++ b/Plan projet/RoadMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kween\Bureau\Ynov\B1 INFO\SEMESTRE 2\Module_CHALLENGE-JS\PROJET\Plan projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2BACCD-655F-46D6-AB70-3C09E952E8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E84425C-C36F-4CC7-8B33-D84FE6B58E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>BOUTIQUE CARACTERISTIQUES</t>
   </si>
@@ -129,13 +129,19 @@
     <t>NOM DES TACHES</t>
   </si>
   <si>
-    <t>DIOR mais a lenvers RIOD</t>
-  </si>
-  <si>
     <t>Logo dispo sur Figma</t>
   </si>
   <si>
     <t>KANTIN / ARTHUR</t>
+  </si>
+  <si>
+    <t>UX &amp; UI OK</t>
+  </si>
+  <si>
+    <t>ROID inspiration de dior</t>
+  </si>
+  <si>
+    <t>Maquettes dispo sur Figma</t>
   </si>
 </sst>
 </file>
@@ -435,17 +441,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -459,49 +501,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -879,7 +885,7 @@
   <dimension ref="A1:AE29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="P12" sqref="P12:Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -889,786 +895,790 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="12" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
     </row>
     <row r="2" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
       <c r="AD2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="31" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
       <c r="AD3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="21" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="31" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
       <c r="AD4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="31" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="31" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
     </row>
     <row r="7" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
       <c r="AD7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="21" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="31" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
       <c r="AD8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="21" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
       <c r="AD9" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
       <c r="AD10" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="31" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
     </row>
     <row r="12" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="31" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
     </row>
     <row r="13" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
     </row>
     <row r="14" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="31" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
     </row>
     <row r="15" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="31" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
     </row>
     <row r="16" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="31" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
     </row>
     <row r="17" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="31" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
     </row>
     <row r="18" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="31" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
     </row>
     <row r="19" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="31" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
     </row>
     <row r="20" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="31" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
     </row>
     <row r="21" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="31" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
     </row>
     <row r="22" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="31" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
     </row>
     <row r="23" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="31" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
     </row>
     <row r="24" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="31" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
     </row>
     <row r="25" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="8"/>
@@ -1683,55 +1693,41 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="P12:Y12"/>
+    <mergeCell ref="P14:Y14"/>
+    <mergeCell ref="P15:Y15"/>
+    <mergeCell ref="P16:Y16"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="P22:Y22"/>
+    <mergeCell ref="P23:Y23"/>
+    <mergeCell ref="P24:Y24"/>
+    <mergeCell ref="P17:Y17"/>
+    <mergeCell ref="P18:Y18"/>
+    <mergeCell ref="P19:Y19"/>
+    <mergeCell ref="P20:Y20"/>
+    <mergeCell ref="P21:Y21"/>
+    <mergeCell ref="P11:Y11"/>
+    <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="P3:Y3"/>
+    <mergeCell ref="P4:Y4"/>
+    <mergeCell ref="P5:Y5"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="P6:Y6"/>
+    <mergeCell ref="P8:Y8"/>
+    <mergeCell ref="P9:Y9"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E21"/>
@@ -1748,41 +1744,55 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="P11:Y11"/>
-    <mergeCell ref="P1:Y1"/>
-    <mergeCell ref="P3:Y3"/>
-    <mergeCell ref="P4:Y4"/>
-    <mergeCell ref="P5:Y5"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="P6:Y6"/>
-    <mergeCell ref="P8:Y8"/>
-    <mergeCell ref="P9:Y9"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="P22:Y22"/>
-    <mergeCell ref="P23:Y23"/>
-    <mergeCell ref="P24:Y24"/>
-    <mergeCell ref="P17:Y17"/>
-    <mergeCell ref="P18:Y18"/>
-    <mergeCell ref="P19:Y19"/>
-    <mergeCell ref="P20:Y20"/>
-    <mergeCell ref="P21:Y21"/>
-    <mergeCell ref="P12:Y12"/>
-    <mergeCell ref="P14:Y14"/>
-    <mergeCell ref="P15:Y15"/>
-    <mergeCell ref="P16:Y16"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="K24:O24"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:O24 K8:O9 K3:O6 K11:O12" xr:uid="{546E0733-B499-451F-8417-27B03B85F6A9}">

--- a/Plan projet/RoadMap.xlsx
+++ b/Plan projet/RoadMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kween\Bureau\Ynov\B1 INFO\SEMESTRE 2\Module_CHALLENGE-JS\PROJET\Plan projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E84425C-C36F-4CC7-8B33-D84FE6B58E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE2240B-E88F-4599-98CC-32AE4A1CF2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>BOUTIQUE CARACTERISTIQUES</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Maquettes dispo sur Figma</t>
+  </si>
+  <si>
+    <t>Fonctionnalité disponible dans fonctionnalité.txt</t>
+  </si>
+  <si>
+    <t>Disponible dans le dossier images</t>
   </si>
 </sst>
 </file>
@@ -441,16 +447,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -458,56 +503,17 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -885,7 +891,7 @@
   <dimension ref="A1:AE29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12:Y12"/>
+      <selection activeCell="P11" sqref="P11:Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -895,790 +901,800 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="14" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="32" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
     </row>
     <row r="2" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
       <c r="AD2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="10" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="12" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="31" t="s">
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
       <c r="AD3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="12" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="31" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
       <c r="AD4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
     </row>
     <row r="7" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
       <c r="AD7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="12" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="31" t="s">
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
       <c r="AD8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="12" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="31" t="s">
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
       <c r="AD9" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
       <c r="AD10" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="12" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+    </row>
+    <row r="12" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-    </row>
-    <row r="12" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="12" t="s">
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+    </row>
+    <row r="13" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+    </row>
+    <row r="14" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-    </row>
-    <row r="13" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-    </row>
-    <row r="14" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="12" t="s">
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+    </row>
+    <row r="15" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+    </row>
+    <row r="16" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+    </row>
+    <row r="17" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-    </row>
-    <row r="15" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="12" t="s">
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+    </row>
+    <row r="18" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-    </row>
-    <row r="16" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="12" t="s">
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+    </row>
+    <row r="19" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-    </row>
-    <row r="17" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="12" t="s">
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+    </row>
+    <row r="20" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-    </row>
-    <row r="18" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="12" t="s">
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+    </row>
+    <row r="21" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-    </row>
-    <row r="19" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="12" t="s">
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+    </row>
+    <row r="22" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-    </row>
-    <row r="20" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="12" t="s">
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+    </row>
+    <row r="23" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-    </row>
-    <row r="21" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="12" t="s">
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+    </row>
+    <row r="24" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-    </row>
-    <row r="22" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-    </row>
-    <row r="23" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-    </row>
-    <row r="24" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
     </row>
     <row r="25" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="8"/>
@@ -1693,41 +1709,55 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="P12:Y12"/>
-    <mergeCell ref="P14:Y14"/>
-    <mergeCell ref="P15:Y15"/>
-    <mergeCell ref="P16:Y16"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="P22:Y22"/>
-    <mergeCell ref="P23:Y23"/>
-    <mergeCell ref="P24:Y24"/>
-    <mergeCell ref="P17:Y17"/>
-    <mergeCell ref="P18:Y18"/>
-    <mergeCell ref="P19:Y19"/>
-    <mergeCell ref="P20:Y20"/>
-    <mergeCell ref="P21:Y21"/>
-    <mergeCell ref="P11:Y11"/>
-    <mergeCell ref="P1:Y1"/>
-    <mergeCell ref="P3:Y3"/>
-    <mergeCell ref="P4:Y4"/>
-    <mergeCell ref="P5:Y5"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="P6:Y6"/>
-    <mergeCell ref="P8:Y8"/>
-    <mergeCell ref="P9:Y9"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:J5"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E21"/>
@@ -1744,55 +1774,41 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="P11:Y11"/>
+    <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="P3:Y3"/>
+    <mergeCell ref="P4:Y4"/>
+    <mergeCell ref="P5:Y5"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="P6:Y6"/>
+    <mergeCell ref="P8:Y8"/>
+    <mergeCell ref="P9:Y9"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="P22:Y22"/>
+    <mergeCell ref="P23:Y23"/>
+    <mergeCell ref="P24:Y24"/>
+    <mergeCell ref="P17:Y17"/>
+    <mergeCell ref="P18:Y18"/>
+    <mergeCell ref="P19:Y19"/>
+    <mergeCell ref="P20:Y20"/>
+    <mergeCell ref="P21:Y21"/>
+    <mergeCell ref="P12:Y12"/>
+    <mergeCell ref="P14:Y14"/>
+    <mergeCell ref="P15:Y15"/>
+    <mergeCell ref="P16:Y16"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="U13:Y13"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:O24 K8:O9 K3:O6 K11:O12" xr:uid="{546E0733-B499-451F-8417-27B03B85F6A9}">

--- a/Plan projet/RoadMap.xlsx
+++ b/Plan projet/RoadMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kween\Bureau\Ynov\B1 INFO\SEMESTRE 2\Module_CHALLENGE-JS\PROJET\Plan projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kween\Desktop\boutique_JS\Plan projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE2240B-E88F-4599-98CC-32AE4A1CF2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B907025-4EDE-4E25-93B9-EC4AA454823D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>BOUTIQUE CARACTERISTIQUES</t>
   </si>
@@ -447,17 +447,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,49 +507,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -891,7 +891,7 @@
   <dimension ref="A1:AE29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:Y11"/>
+      <selection activeCell="F12" sqref="F12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -901,800 +901,802 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="12" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
     </row>
     <row r="2" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
       <c r="AD2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="21" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="31" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="10" t="s">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
       <c r="AD3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="21" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="31" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="10" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
       <c r="AD4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="21" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="31" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="10" t="s">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="21" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="31" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="10" t="s">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
     </row>
     <row r="7" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
       <c r="AD7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="21" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="31" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="10" t="s">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
       <c r="AD8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="21" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="31" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="10" t="s">
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
       <c r="AD9" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
       <c r="AD10" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="21" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="31" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
     </row>
     <row r="12" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="31" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+    </row>
+    <row r="13" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+    </row>
+    <row r="14" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-    </row>
-    <row r="13" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-    </row>
-    <row r="14" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="31" t="s">
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+    </row>
+    <row r="15" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+    </row>
+    <row r="16" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+    </row>
+    <row r="17" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-    </row>
-    <row r="15" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-    </row>
-    <row r="16" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-    </row>
-    <row r="17" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="31" t="s">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+    </row>
+    <row r="18" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-    </row>
-    <row r="18" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="31" t="s">
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+    </row>
+    <row r="19" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-    </row>
-    <row r="19" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="31" t="s">
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+    </row>
+    <row r="20" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-    </row>
-    <row r="20" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="31" t="s">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+    </row>
+    <row r="21" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-    </row>
-    <row r="21" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="31" t="s">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+    </row>
+    <row r="22" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-    </row>
-    <row r="22" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="31" t="s">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+    </row>
+    <row r="23" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-    </row>
-    <row r="23" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="31" t="s">
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+    </row>
+    <row r="24" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-    </row>
-    <row r="24" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
     </row>
     <row r="25" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="8"/>
@@ -1709,55 +1711,41 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="P12:Y12"/>
+    <mergeCell ref="P14:Y14"/>
+    <mergeCell ref="P15:Y15"/>
+    <mergeCell ref="P16:Y16"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="P22:Y22"/>
+    <mergeCell ref="P23:Y23"/>
+    <mergeCell ref="P24:Y24"/>
+    <mergeCell ref="P17:Y17"/>
+    <mergeCell ref="P18:Y18"/>
+    <mergeCell ref="P19:Y19"/>
+    <mergeCell ref="P20:Y20"/>
+    <mergeCell ref="P21:Y21"/>
+    <mergeCell ref="P11:Y11"/>
+    <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="P3:Y3"/>
+    <mergeCell ref="P4:Y4"/>
+    <mergeCell ref="P5:Y5"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="P6:Y6"/>
+    <mergeCell ref="P8:Y8"/>
+    <mergeCell ref="P9:Y9"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E21"/>
@@ -1774,41 +1762,55 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="P11:Y11"/>
-    <mergeCell ref="P1:Y1"/>
-    <mergeCell ref="P3:Y3"/>
-    <mergeCell ref="P4:Y4"/>
-    <mergeCell ref="P5:Y5"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="P6:Y6"/>
-    <mergeCell ref="P8:Y8"/>
-    <mergeCell ref="P9:Y9"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="P22:Y22"/>
-    <mergeCell ref="P23:Y23"/>
-    <mergeCell ref="P24:Y24"/>
-    <mergeCell ref="P17:Y17"/>
-    <mergeCell ref="P18:Y18"/>
-    <mergeCell ref="P19:Y19"/>
-    <mergeCell ref="P20:Y20"/>
-    <mergeCell ref="P21:Y21"/>
-    <mergeCell ref="P12:Y12"/>
-    <mergeCell ref="P14:Y14"/>
-    <mergeCell ref="P15:Y15"/>
-    <mergeCell ref="P16:Y16"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="K24:O24"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:O24 K8:O9 K3:O6 K11:O12" xr:uid="{546E0733-B499-451F-8417-27B03B85F6A9}">

--- a/Plan projet/RoadMap.xlsx
+++ b/Plan projet/RoadMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kween\Desktop\boutique_JS\Plan projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kween\Bureau\Ynov\B1 INFO\SEMESTRE 2\Module_CHALLENGE-JS\Livrables-projet-boutique-js\Plan projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B907025-4EDE-4E25-93B9-EC4AA454823D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E9579B-3B0C-4434-9082-9161CDAA6111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>BOUTIQUE CARACTERISTIQUES</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Disponible dans le dossier images</t>
+  </si>
+  <si>
+    <t>looping.loo dans le dossier backend/database</t>
   </si>
 </sst>
 </file>
@@ -447,16 +450,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -464,56 +506,17 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -890,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:J12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12:Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -901,802 +904,810 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="14" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="32" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
     </row>
     <row r="2" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
       <c r="AD2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="10" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="12" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="31" t="s">
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
       <c r="AD3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="12" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="31" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
       <c r="AD4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="12" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="31" t="s">
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="31" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
     </row>
     <row r="7" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
       <c r="AD7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="31" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
       <c r="AD8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="12" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="31" t="s">
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
       <c r="AD9" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
       <c r="AD10" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
     </row>
     <row r="12" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
     </row>
     <row r="13" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
     </row>
     <row r="14" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="12" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+    </row>
+    <row r="15" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+    </row>
+    <row r="16" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+    </row>
+    <row r="17" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+    </row>
+    <row r="18" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-    </row>
-    <row r="15" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-    </row>
-    <row r="16" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10" t="s">
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+    </row>
+    <row r="19" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+    </row>
+    <row r="20" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+    </row>
+    <row r="21" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+    </row>
+    <row r="22" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+    </row>
+    <row r="23" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+    </row>
+    <row r="24" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-    </row>
-    <row r="17" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-    </row>
-    <row r="18" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-    </row>
-    <row r="19" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-    </row>
-    <row r="20" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-    </row>
-    <row r="21" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-    </row>
-    <row r="22" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-    </row>
-    <row r="23" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-    </row>
-    <row r="24" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
     </row>
     <row r="25" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="8"/>
@@ -1711,41 +1722,55 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="P12:Y12"/>
-    <mergeCell ref="P14:Y14"/>
-    <mergeCell ref="P15:Y15"/>
-    <mergeCell ref="P16:Y16"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="P22:Y22"/>
-    <mergeCell ref="P23:Y23"/>
-    <mergeCell ref="P24:Y24"/>
-    <mergeCell ref="P17:Y17"/>
-    <mergeCell ref="P18:Y18"/>
-    <mergeCell ref="P19:Y19"/>
-    <mergeCell ref="P20:Y20"/>
-    <mergeCell ref="P21:Y21"/>
-    <mergeCell ref="P11:Y11"/>
-    <mergeCell ref="P1:Y1"/>
-    <mergeCell ref="P3:Y3"/>
-    <mergeCell ref="P4:Y4"/>
-    <mergeCell ref="P5:Y5"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="P6:Y6"/>
-    <mergeCell ref="P8:Y8"/>
-    <mergeCell ref="P9:Y9"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:J5"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E21"/>
@@ -1762,55 +1787,41 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="P11:Y11"/>
+    <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="P3:Y3"/>
+    <mergeCell ref="P4:Y4"/>
+    <mergeCell ref="P5:Y5"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="P6:Y6"/>
+    <mergeCell ref="P8:Y8"/>
+    <mergeCell ref="P9:Y9"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="P22:Y22"/>
+    <mergeCell ref="P23:Y23"/>
+    <mergeCell ref="P24:Y24"/>
+    <mergeCell ref="P17:Y17"/>
+    <mergeCell ref="P18:Y18"/>
+    <mergeCell ref="P19:Y19"/>
+    <mergeCell ref="P20:Y20"/>
+    <mergeCell ref="P21:Y21"/>
+    <mergeCell ref="P12:Y12"/>
+    <mergeCell ref="P14:Y14"/>
+    <mergeCell ref="P15:Y15"/>
+    <mergeCell ref="P16:Y16"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="U13:Y13"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:O24 K8:O9 K3:O6 K11:O12" xr:uid="{546E0733-B499-451F-8417-27B03B85F6A9}">

--- a/Plan projet/RoadMap.xlsx
+++ b/Plan projet/RoadMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kween\Bureau\Ynov\B1 INFO\SEMESTRE 2\Module_CHALLENGE-JS\Livrables-projet-boutique-js\Plan projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E9579B-3B0C-4434-9082-9161CDAA6111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8327375D-545C-45A5-9DD3-3111619FA9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>BOUTIQUE CARACTERISTIQUES</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>looping.loo dans le dossier backend/database</t>
+  </si>
+  <si>
+    <t>Trie produit</t>
   </si>
 </sst>
 </file>
@@ -450,17 +453,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -474,49 +513,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -891,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE29"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12:Y12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -904,896 +907,877 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="12" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
     </row>
     <row r="2" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
       <c r="AD2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="21" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="31" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="10" t="s">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
       <c r="AD3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="21" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="31" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="10" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
       <c r="AD4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="21" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="31" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="10" t="s">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="21" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="31" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="10" t="s">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
     </row>
     <row r="7" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
       <c r="AD7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="21" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="31" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="10" t="s">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
       <c r="AD8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="21" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="31" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="10" t="s">
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
       <c r="AD9" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
       <c r="AD10" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="21" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="31" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
     </row>
     <row r="12" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="21" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="31" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
     </row>
     <row r="13" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
     </row>
     <row r="14" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="21" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="31" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="10" t="s">
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
     </row>
     <row r="15" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="21" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="31" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
     </row>
     <row r="16" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="21" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="31" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
     </row>
     <row r="17" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="21" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="31" t="s">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
     </row>
     <row r="18" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+    </row>
+    <row r="19" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="31" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+    </row>
+    <row r="20" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-    </row>
-    <row r="19" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="31" t="s">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+    </row>
+    <row r="21" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-    </row>
-    <row r="20" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="31" t="s">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+    </row>
+    <row r="22" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-    </row>
-    <row r="21" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="31" t="s">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+    </row>
+    <row r="23" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-    </row>
-    <row r="22" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="31" t="s">
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+    </row>
+    <row r="24" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-    </row>
-    <row r="23" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-    </row>
-    <row r="24" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+    </row>
+    <row r="25" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="21" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="31" t="s">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-    </row>
-    <row r="25" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="S25" s="3"/>
-    </row>
-    <row r="29" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="9"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+    </row>
+    <row r="26" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="30" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="K24:O24"/>
+  <mergeCells count="104">
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:J19"/>
     <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="P19:Y19"/>
+    <mergeCell ref="P12:Y12"/>
+    <mergeCell ref="P14:Y14"/>
+    <mergeCell ref="P15:Y15"/>
+    <mergeCell ref="P16:Y16"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="P23:Y23"/>
+    <mergeCell ref="P24:Y24"/>
+    <mergeCell ref="P25:Y25"/>
+    <mergeCell ref="P17:Y17"/>
+    <mergeCell ref="P18:Y18"/>
+    <mergeCell ref="P20:Y20"/>
+    <mergeCell ref="P21:Y21"/>
+    <mergeCell ref="P22:Y22"/>
     <mergeCell ref="P11:Y11"/>
     <mergeCell ref="P1:Y1"/>
     <mergeCell ref="P3:Y3"/>
@@ -1808,26 +1792,84 @@
     <mergeCell ref="P9:Y9"/>
     <mergeCell ref="P7:T7"/>
     <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="P22:Y22"/>
-    <mergeCell ref="P23:Y23"/>
-    <mergeCell ref="P24:Y24"/>
-    <mergeCell ref="P17:Y17"/>
-    <mergeCell ref="P18:Y18"/>
-    <mergeCell ref="P19:Y19"/>
-    <mergeCell ref="P20:Y20"/>
-    <mergeCell ref="P21:Y21"/>
-    <mergeCell ref="P12:Y12"/>
-    <mergeCell ref="P14:Y14"/>
-    <mergeCell ref="P15:Y15"/>
-    <mergeCell ref="P16:Y16"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K25:O25"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:O24 K8:O9 K3:O6 K11:O12" xr:uid="{546E0733-B499-451F-8417-27B03B85F6A9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:O12 K8:O9 K3:O6 K14:O25" xr:uid="{546E0733-B499-451F-8417-27B03B85F6A9}">
       <formula1>$AD$8:$AD$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:J6 F8:J9 F11:J12 F14:J25" xr:uid="{0AEA89E8-2FD4-4A1E-AC12-D2608D44DBA1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:J6 F8:J9 F11:J12 F14:J26" xr:uid="{0AEA89E8-2FD4-4A1E-AC12-D2608D44DBA1}">
       <formula1>$AD$3:$AD$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1977,7 +2019,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K14:O24</xm:sqref>
+          <xm:sqref>K14:O25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="25" operator="containsText" id="{FAA05BAA-1CAE-41D3-B3BE-0E16EFE6E746}">
